--- a/biology/Zoologie/Chrysolina/Chrysolina.xlsx
+++ b/biology/Zoologie/Chrysolina/Chrysolina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysolina est un genre de coléoptères de la famille des Chrysomelidae. Diversement colorés, ces insectes présentent souvent des reflets métalliques irisés.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (9 janv. 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (9 janv. 2013) :
 sous-genre Chrysolina (Allhypericia) J. Bechyné, 1950
 sous-genre Chrysolina (Arctolina) Kontkanen, 1959
 sous-genre Chrysolina (Chalcoidea) Motschulsky, 1860
@@ -548,9 +562,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (9 janv. 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (9 janv. 2013) :
 Chrysolina auripennis
 Chrysolina basilaris
 Chrysolina caurina
@@ -568,9 +584,9 @@
 Chrysolina subsulcata
 Chrysolina varians
 Chrysolina wollosowiczi
-Selon World Register of Marine Species                               (9 janv. 2013)[3] :
+Selon World Register of Marine Species                               (9 janv. 2013) :
 Chrysolina haemoptera (Stephens)
-Selon NCBI  (28 janv. 2015)[4] :
+Selon NCBI  (28 janv. 2015) :
 Chrysolina aeruginosa
 Chrysolina affinis
 sous-espèce Chrysolina affinis baetica
@@ -619,8 +635,43 @@
 sous-espèce Chrysolina vernalis pyrenaica
 Chrysolina virgata
 Chrysolina viridana
-Quelques espèces
-Chrysolina (Taeniochrysea) americana (Linnaeus, 1758)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chrysolina</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysolina</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces et sous-espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Quelques espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chrysolina (Taeniochrysea) americana (Linnaeus, 1758)
 Chrysolina (Synerga) coerulans (Scriba, 1791)
 Chrysolina (Fastuolina) fastuosa (Scopoli, 1763)
 Chrysolina (Synerga) herbacea (Duftschmid, 1825)
